--- a/data/12-12-2025_E-Files_Full_Backup.xlsx
+++ b/data/12-12-2025_E-Files_Full_Backup.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="88">
   <si>
     <t>File Number</t>
   </si>
@@ -74,106 +74,43 @@
     <t>2025-12-12T15:07:05.869837+00:00</t>
   </si>
   <si>
+    <t>File No.:KOLTD-21/12(11)/5/2024-TM-I SOUTH-II TX KOL Comp. No.:490274 490274</t>
+  </si>
+  <si>
+    <t>Planning and proposal of BTS Ring for 4G under DE/TM/South II regarding</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>303004</t>
+  </si>
+  <si>
+    <t>1001815</t>
+  </si>
+  <si>
+    <t>2025-12-09T18:45:18.018138+00:00</t>
+  </si>
+  <si>
+    <t>2025-12-09T18:46:35.139817+00:00</t>
+  </si>
+  <si>
     <t>File No.:KOLTD-21/12(14)/12/2021-TI SOUTH TX KOL Comp. No.:42788 42788</t>
   </si>
   <si>
     <t>Administrative Approval for preparation of PE/WBS for OFC laying through O/H &amp; Lead/In for 1no. of site for Sr DCM, Sealdah Division, Eastern Railway at Station Manager, Sonarpur Railway Station, PO- Sonarpur, Sonarpur Bazar, South 24 Parganas- 700150 (LC Id: 1000645008).</t>
   </si>
   <si>
-    <t xml:space="preserve">As per the attached documents put up in this file, Station Manager, Sonarpur Railway Station, PO- Sonarpur, Sonarpur Bazar, South 24 Parganas- 700150 (LC Id: 1000645008) is to be connected by OFC.
-As per preliminary survey report of the above mentioned site, one 4F OFC will be laid from Sonarpur Telephone Exchange to Sonarpur Railway Station.
-Also, as per preliminary survey drawing put up in file, cost estimate was prepared and put up in this file as well as the detailed execution data along with proposed material requirements are given below.
-Sl No
-Item
-Sonarpur Railway Station
-1
-4F OFC (approx)
-850m
-2
-24F OFC (approx)
-NIL
-3
-48F OFC (approx)
-NIL
-4
-OF Pigtail (10m)
-8nos.
-5
-OF Patch Cord
-4nos.
-6
-‘0’ db Connector
-4nos.
-7
-Terminal Box
-NIL
-8
-Route Length (approx)
-850m
-9
-4F Cable pulling through O/H in route (approx)
-780m
-10
-4F Cable pulling for L/I  &amp; Roll (approx)
-70m
-11
-Supply of Stay Wire (4mm) with insulation coating
-NIL
-12
-Supply of Cable Binding Collar (4inch)
-NIL
-13
-Supply of Cable Binder PVC Flexible Roll
-NIL
-14
-Supply of pole clamp
-26nos.
-15
-Supply of insulator
-26nos.
-16
-Splicing (4F)
-2nos.
-17
-Joint Operation (24F OFC)(First 4F)
-NIL
-18
-Joint Operation (24F OFC)(Single Fibre)
-NIL
-19
-Joint Operation (48F OFC)(Single Fibre)
-NIL
-20
-Supply and fixing of PVC with clamp
-NIL
-21
-Joint Kit
-NIL
-22
-Equipment
-1no. Media Converter
-23
-4F joint box
-2nos.
-24
-HDPE Pipe
-NIL
-25
-Laying of PLB pipe in trench
-NIL
-26
-Pull back of OFC
-NIL
-The above are, however, a mere proposal subject to approval of competent authority. The decision of competent authority is final, if agreed, with this proposal.
-Considering above work details, an administrative approval and other necessary actions in this regard for preparation of fresh PE/WBS may please be accorded, if agreed.
-The store requisition of Sonarpur Railway Station is also placed with this. The corresponding documents are placed from Page No.- 388 to 391.
-Submitted for kind approval please.</t>
-  </si>
-  <si>
-    <t>technical</t>
-  </si>
-  <si>
-    <t>normal</t>
+    <t>&lt;p&gt;As per the attached documents put up in this file, Station Manager, Sonarpur Railway Station, PO- Sonarpur, Sonarpur Bazar, South 24 Parganas- 700150 (LC Id: 1000645008) is to be connected by OFC.&lt;/p&gt;&lt;p&gt;As per preliminary survey report of the above mentioned site, one 4F OFC will be laid from Sonarpur Telephone Exchange to Sonarpur Railway Station.&lt;/p&gt;&lt;p&gt;Also, as per preliminary survey drawing put up in file, cost estimate was prepared and put up in this file as well as the detailed execution data along with proposed material requirements are given below.&lt;br&gt;&lt;br&gt;&lt;/p&gt;&lt;table class="border-collapse table-auto w-full my-4 border border-gray-300 dark:border-gray-600" style="min-width: 75px;"&gt;&lt;colgroup&gt;&lt;col style="min-width: 25px;"&gt;&lt;col style="min-width: 25px;"&gt;&lt;col style="min-width: 25px;"&gt;&lt;/colgroup&gt;&lt;tbody&gt;&lt;tr&gt;&lt;th class="border border-gray-300 dark:border-gray-600 bg-gray-100 dark:bg-gray-800 p-2 font-semibold text-left" colspan="1" rowspan="1"&gt;&lt;p&gt;Sl No&lt;/p&gt;&lt;/th&gt;&lt;th class="border border-gray-300 dark:border-gray-600 bg-gray-100 dark:bg-gray-800 p-2 font-semibold text-left" colspan="1" rowspan="1"&gt;&lt;p&gt;Item&lt;/p&gt;&lt;/th&gt;&lt;th class="border border-gray-300 dark:border-gray-600 bg-gray-100 dark:bg-gray-800 p-2 font-semibold text-left" colspan="1" rowspan="1"&gt;&lt;p&gt;Quantity&lt;/p&gt;&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;1&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;4F OFC (approx)&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;850m&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;2&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;24F OFC (approx)&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;3&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;48F OFC (approx)&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;4&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;OF Pigtail (10m)&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;8 nos.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;5&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;OF Patch Cord&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;4 nos.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;6&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;‘0’ dB Connector&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;4 nos.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;7&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Terminal Box&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;8&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Route Length (approx)&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;850m&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;9&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;4F Cable pulling through O/H in route (approx)&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;780m&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;10&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;4F Cable pulling for L/I &amp;amp; Roll (approx)&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;70m&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;11&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Supply of Stay Wire (4mm) with insulation coating&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;12&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Supply of Cable Binding Collar (4 inch)&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;13&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Supply of Cable Binder PVC Flexible Roll&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;14&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Supply of pole clamp&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;26 nos.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;15&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Supply of insulator&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;26 nos.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;16&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Splicing (4F)&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;2 nos.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;17&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Joint Operation (24F OFC) (First 4F)&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;18&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Joint Operation (24F OFC) (Single Fibre)&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;19&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Joint Operation (48F OFC) (Single Fibre)&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;20&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Supply and fixing of PVC with clamp&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;21&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Joint Kit&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;22&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Equipment – Media Converter&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;1 no.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;23&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;4F Joint Box&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;2 nos.&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;24&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;HDPE Pipe&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;25&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Laying of PLB pipe in trench&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;26&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;Pull back of OFC&lt;/p&gt;&lt;/td&gt;&lt;td class="border border-gray-300 dark:border-gray-600 p-2 align-top relative" colspan="1" rowspan="1"&gt;&lt;p&gt;NIL&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;The above are, however, a mere proposal subject to approval of competent authority. The decision of competent authority is final, if agreed, with this proposal.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Considering above work details, an administrative approval and other necessary actions in this regard for preparation of fresh PE/WBS may please be accorded, if agreed.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;The store requisition of Sonarpur Railway Station is also placed with this. The corresponding documents are placed from Page No.- 388 to 391.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Submitted for kind approval please.&lt;/p&gt;&lt;p&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>immediate</t>
   </si>
   <si>
     <t>802784</t>
@@ -182,28 +119,7 @@
     <t>2025-12-09T18:16:38.132871+00:00</t>
   </si>
   <si>
-    <t>2025-12-09T18:42:01.974373+00:00</t>
-  </si>
-  <si>
-    <t>File No.:KOLTD-21/12(11)/5/2024-TM-I SOUTH-II TX KOL Comp. No.:490274 490274</t>
-  </si>
-  <si>
-    <t>Planning and proposal of BTS Ring for 4G under DE/TM/South II regarding</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>303004</t>
-  </si>
-  <si>
-    <t>1001815</t>
-  </si>
-  <si>
-    <t>2025-12-09T18:45:18.018138+00:00</t>
-  </si>
-  <si>
-    <t>2025-12-09T18:46:35.139817+00:00</t>
+    <t>2025-12-12T17:10:36.688756+00:00</t>
   </si>
   <si>
     <t>Action</t>
@@ -397,6 +313,9 @@
 However, another file regarding closure and vacation of A.P. Nagar Telephone Exchange by 08-04-2026 has been put for approval for shifting all the services/OFC to a suitable nearby site. During the shifting/diversion exercise, considerable fibre rearrangement and additional spare fibre requirements will arise. So, instead of laying 4F OFC, it is recommended to revise the proposal to lay 24F OFC on the Sonarpur Exchange – Sonarpur Railway Station route. When A.P. Nagar Exchange will be vacated, spare fibres of this newly-laid 24F cable can be used to absorb and reroute required services, as the existing AP Nagar–Sonarpur 24F cables have no working spare fibres available.
 If approved, PE/WBS may be prepared accordingly, replacing 4F with 24F OFC, and revising material quantities and cost estimates.
 Submitted for kind consideration and approval, please.</t>
+  </si>
+  <si>
+    <t>2025-12-09T18:42:01.974373+00:00</t>
   </si>
   <si>
     <t>For DPR Earthing file preparation</t>
@@ -874,45 +793,45 @@
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -938,22 +857,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -961,16 +880,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -981,22 +900,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1004,22 +923,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,22 +946,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1050,22 +969,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1096,22 +1015,22 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1119,22 +1038,22 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1142,22 +1061,22 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1165,22 +1084,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1188,22 +1107,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1211,22 +1130,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1234,22 +1153,22 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1257,22 +1176,22 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1280,22 +1199,22 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1303,22 +1222,22 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1326,22 +1245,22 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1349,22 +1268,22 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1372,22 +1291,22 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1395,22 +1314,22 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1418,22 +1337,22 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1441,22 +1360,22 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1464,22 +1383,22 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1487,22 +1406,22 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1510,22 +1429,22 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1533,154 +1452,154 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
         <v>81</v>
       </c>
-      <c r="F29" t="s">
-        <v>80</v>
-      </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s">
         <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1688,19 +1607,19 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
